--- a/Лист Microsoft Excel (4).xlsx
+++ b/Лист Microsoft Excel (4).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Сведения о проекте" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Состав проекта" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Сведения о проекте" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Состав проекта" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,19 @@
           <t>C:/Users/naumo/Downloads/баскетбол.jpg</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
